--- a/hybrid_risk_assessment_tool_2025v8.xlsx
+++ b/hybrid_risk_assessment_tool_2025v8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/wel0286_arastudent_ac_nz1/Documents/Desktop/S2 2025 (FINAL)/BCIS309/Ass2-HalfwayReport/_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\HRAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{4F4A4458-6E3A-4C75-A98D-54AC97EA54A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3F39E2A-942F-47B6-B438-7F14B7D5D929}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1498C01-CE6E-43C4-A4AD-693C0A46D98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="221">
   <si>
     <t>Possible Risks</t>
   </si>
@@ -831,63 +831,12 @@
     <t>Risk Statement</t>
   </si>
   <si>
-    <t>Scope creep</t>
-  </si>
-  <si>
-    <t>Missing deadlines, incomplete project</t>
-  </si>
-  <si>
     <t>Illness/COVID</t>
   </si>
   <si>
     <t>Unable to work on project, miss meetings</t>
   </si>
   <si>
-    <t>Technical skill gaps</t>
-  </si>
-  <si>
-    <t>Delay in development, poor quality output</t>
-  </si>
-  <si>
-    <t>Data loss</t>
-  </si>
-  <si>
-    <t>Lost of development progress, redoing task</t>
-  </si>
-  <si>
-    <t>Organisation: WedPro</t>
-  </si>
-  <si>
-    <t>Initiative, Project, and/or Engagement: Vendor Directory</t>
-  </si>
-  <si>
-    <t>Author: Adrian Lim</t>
-  </si>
-  <si>
-    <t>Version control issues</t>
-  </si>
-  <si>
-    <t>Merge conflicts, broken code</t>
-  </si>
-  <si>
-    <t>Poor time management</t>
-  </si>
-  <si>
-    <t>Miss deadlines, rushed development leading to bad work</t>
-  </si>
-  <si>
-    <t>Burnout/mental health decline</t>
-  </si>
-  <si>
-    <t>Poor quality work, health issues, missed deadlines</t>
-  </si>
-  <si>
-    <t>Regular reviews with stakeholders</t>
-  </si>
-  <si>
-    <t>Addition of new features, changing requirements</t>
-  </si>
-  <si>
     <t>Maintain good hygiene</t>
   </si>
   <si>
@@ -897,57 +846,6 @@
     <t>Feeling unwell, exposure to illness in public space</t>
   </si>
   <si>
-    <t>Practice with tools, online tutorials, ask for advice early</t>
-  </si>
-  <si>
-    <t>Seek additional training, adjust timeline</t>
-  </si>
-  <si>
-    <t>Struggling with assigned task, repeated errors</t>
-  </si>
-  <si>
-    <t>Regular backups, git version control</t>
-  </si>
-  <si>
-    <t>Restore from backups, Restore from github repository</t>
-  </si>
-  <si>
-    <t>Software crashes, Hardware failure</t>
-  </si>
-  <si>
-    <t>Create detailed schedule, use project management tools</t>
-  </si>
-  <si>
-    <t>Request extension if needed, reprioritise task</t>
-  </si>
-  <si>
-    <t>Multiple deadline conflict, falling behind schedule</t>
-  </si>
-  <si>
-    <t>Regular commits, branch strategy, backups</t>
-  </si>
-  <si>
-    <t>Manually merge, Restore from backups</t>
-  </si>
-  <si>
-    <t>Poor commit message</t>
-  </si>
-  <si>
-    <t>Regular breaks, exercise routine</t>
-  </si>
-  <si>
-    <t>Seek support, adjust timeline, reduce scope</t>
-  </si>
-  <si>
-    <t>Skipping breaks, working late at night</t>
-  </si>
-  <si>
-    <t>WedPro Risk Assessment Version 1</t>
-  </si>
-  <si>
-    <t>Prioritse must-have features</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -957,9 +855,6 @@
     <t>Current Risk</t>
   </si>
   <si>
-    <t>Date: 13 August 2025</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -981,9 +876,6 @@
     <t>Learned</t>
   </si>
   <si>
-    <t>Project: Vendor Directory</t>
-  </si>
-  <si>
     <t>Post-Mitigation Risk</t>
   </si>
   <si>
@@ -1017,9 +909,6 @@
     <t>(D) Major                  7-8</t>
   </si>
   <si>
-    <t>(E) Servere              9-10</t>
-  </si>
-  <si>
     <t>5A Low                 Exp: 0.85-1.7</t>
   </si>
   <si>
@@ -1230,21 +1119,6 @@
     <t>2C</t>
   </si>
   <si>
-    <t>Stakeholder availability</t>
-  </si>
-  <si>
-    <t>Unclear requirements, Feedback delays</t>
-  </si>
-  <si>
-    <t>Multiple communication channels, Schedule regular meetings</t>
-  </si>
-  <si>
-    <t>Work with available information, Note down changes in documentation</t>
-  </si>
-  <si>
-    <t>Delayed responses, Missed meetings</t>
-  </si>
-  <si>
     <t>1C</t>
   </si>
   <si>
@@ -1332,17 +1206,58 @@
     <t>Risk Matrix</t>
   </si>
   <si>
-    <t>Creation Date: 6 August 2025</t>
-  </si>
-  <si>
-    <t>WedPro Risk Assessment Version 5</t>
+    <t>How to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation: </t>
+  </si>
+  <si>
+    <t>&lt;Project Name&gt; Risk Assessment Version #</t>
+  </si>
+  <si>
+    <t>Organisation:</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>Change this accordingly to your needs if required :)</t>
+  </si>
+  <si>
+    <t>This is a hybrid risk assessment tool created by Adrian Lim W.S on 15th August 2025                     Credits to Microsoft Risk Tool &amp; Griffth University Enterprise Risk Management Matrix</t>
+  </si>
+  <si>
+    <t>(E) Severe              9-10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Insert the Probability % and Impact value to calculate the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Exposure, Code and Risk levels</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1523,8 +1438,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,8 +1505,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1757,6 +1690,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1764,7 +1759,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1919,9 +1914,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1976,35 +1968,77 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2107,10 +2141,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2376,16 +2406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C17"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
@@ -2401,55 +2431,82 @@
     <col min="15" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>252</v>
-      </c>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>92</v>
-      </c>
+      <c r="A3" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>134</v>
-      </c>
+      <c r="A4" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="A5" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>251</v>
-      </c>
+      <c r="A6" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="59" t="s">
-        <v>125</v>
+      <c r="C8" s="73"/>
+      <c r="D8" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="58" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="56"/>
-      <c r="J8" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="59" t="s">
-        <v>135</v>
+      <c r="J8" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="58" t="s">
+        <v>99</v>
       </c>
       <c r="O8" s="56"/>
       <c r="P8" s="55"/>
@@ -2474,10 +2531,10 @@
         <v>77</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="I9" s="53" t="s">
         <v>76</v>
@@ -2492,10 +2549,10 @@
         <v>77</v>
       </c>
       <c r="M9" s="53" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O9" s="53" t="s">
         <v>75</v>
@@ -2509,22 +2566,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="58">
+        <v>85</v>
+      </c>
+      <c r="D10" s="88">
         <v>0.6</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="89">
         <v>8</v>
       </c>
       <c r="F10" s="51">
         <f t="shared" ref="F10:F29" si="0">D10*E10</f>
         <v>4.8</v>
       </c>
-      <c r="G10" s="72" t="str">
+      <c r="G10" s="71" t="str">
         <f t="shared" ref="G10:G17" si="1">CHOOSE(MIN(5,ROUNDUP(D10/0.2,0)),"1","2","3","4","5") &amp; CHOOSE(MIN(5,ROUNDUP(E10/2,0)),"A","B","C","D","E")</f>
         <v>3D</v>
       </c>
@@ -2533,12 +2590,12 @@
         <v>High</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="58">
+        <v>86</v>
+      </c>
+      <c r="J10" s="88">
         <v>0.3</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="89">
         <v>5</v>
       </c>
       <c r="L10" s="51">
@@ -2554,33 +2611,29 @@
         <v>Low</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
         <v>2</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="58">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="88">
         <v>0.35</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="89">
         <v>7</v>
       </c>
       <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>2.4499999999999997</v>
       </c>
-      <c r="G11" s="72" t="str">
+      <c r="G11" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
@@ -2588,13 +2641,11 @@
         <f>VLOOKUP(G11,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Medium</v>
       </c>
-      <c r="I11" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="58">
+      <c r="I11" s="57"/>
+      <c r="J11" s="88">
         <v>0.1</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="89">
         <v>5</v>
       </c>
       <c r="L11" s="51">
@@ -2609,34 +2660,26 @@
         <f>VLOOKUP(M11,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O11" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="51">
         <v>3</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="58">
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="88">
         <v>0.3</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="89">
         <v>7</v>
       </c>
       <c r="F12" s="51">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="G12" s="72" t="str">
+      <c r="G12" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
@@ -2644,13 +2687,11 @@
         <f>VLOOKUP(G12,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Medium</v>
       </c>
-      <c r="I12" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="58">
+      <c r="I12" s="57"/>
+      <c r="J12" s="88">
         <v>0.1</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="89">
         <v>5</v>
       </c>
       <c r="L12" s="51">
@@ -2665,34 +2706,26 @@
         <f>VLOOKUP(M12,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O12" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" s="57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="51">
         <v>4</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="58">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="88">
         <v>0.25</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="89">
         <v>8</v>
       </c>
       <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G13" s="72" t="str">
+      <c r="G13" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2D</v>
       </c>
@@ -2700,13 +2733,11 @@
         <f>VLOOKUP(G13,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Medium</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="58">
+      <c r="I13" s="57"/>
+      <c r="J13" s="88">
         <v>0.12</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="89">
         <v>4</v>
       </c>
       <c r="L13" s="51">
@@ -2721,34 +2752,26 @@
         <f>VLOOKUP(M13,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O13" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" s="57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="51">
         <v>5</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="58">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="88">
         <v>0.3</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="89">
         <v>6</v>
       </c>
       <c r="F14" s="51">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="G14" s="72" t="str">
+      <c r="G14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
       </c>
@@ -2756,13 +2779,11 @@
         <f>VLOOKUP(G14,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Low</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="58">
+      <c r="I14" s="57"/>
+      <c r="J14" s="88">
         <v>0.15</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="89">
         <v>4</v>
       </c>
       <c r="L14" s="51">
@@ -2777,34 +2798,26 @@
         <f>VLOOKUP(M14,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O14" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" s="57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="51">
         <v>6</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="58">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="88">
         <v>0.3</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="89">
         <v>6</v>
       </c>
       <c r="F15" s="51">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="G15" s="72" t="str">
+      <c r="G15" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
       </c>
@@ -2812,13 +2825,11 @@
         <f>VLOOKUP(G15,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Low</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="58">
+      <c r="I15" s="50"/>
+      <c r="J15" s="88">
         <v>0.15</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="89">
         <v>4</v>
       </c>
       <c r="L15" s="51">
@@ -2833,34 +2844,26 @@
         <f>VLOOKUP(M15,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O15" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="51">
         <v>7</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="58">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="88">
         <v>0.25</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="89">
         <v>6</v>
       </c>
       <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="G16" s="72" t="str">
+      <c r="G16" s="71" t="str">
         <f t="shared" si="1"/>
         <v>2C</v>
       </c>
@@ -2868,13 +2871,11 @@
         <f>VLOOKUP(G16,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Low</v>
       </c>
-      <c r="I16" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="58">
+      <c r="I16" s="57"/>
+      <c r="J16" s="88">
         <v>0.1</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="89">
         <v>4</v>
       </c>
       <c r="L16" s="51">
@@ -2889,34 +2890,26 @@
         <f>VLOOKUP(M16,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O16" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="51">
         <v>8</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="58">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="88">
         <v>0.15</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="89">
         <v>9</v>
       </c>
       <c r="F17" s="51">
         <f t="shared" si="0"/>
         <v>1.3499999999999999</v>
       </c>
-      <c r="G17" s="72" t="str">
+      <c r="G17" s="71" t="str">
         <f t="shared" si="1"/>
         <v>1E</v>
       </c>
@@ -2924,13 +2917,11 @@
         <f>VLOOKUP(G17,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Low</v>
       </c>
-      <c r="I17" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="58">
+      <c r="I17" s="57"/>
+      <c r="J17" s="88">
         <v>0.05</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="89">
         <v>5</v>
       </c>
       <c r="L17" s="51">
@@ -2945,12 +2936,8 @@
         <f>VLOOKUP(M17,'LookUp Table'!$A:$B,2,FALSE)</f>
         <v>Very Low</v>
       </c>
-      <c r="O17" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="57" t="s">
-        <v>111</v>
-      </c>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="51">
@@ -2958,10 +2945,10 @@
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
-      <c r="D18" s="58">
+      <c r="D18" s="88">
         <v>0</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="89">
         <v>0</v>
       </c>
       <c r="F18" s="51">
@@ -2974,8 +2961,8 @@
         <v>#N/A</v>
       </c>
       <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
       <c r="N18" s="51" t="e">
@@ -2991,10 +2978,10 @@
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="58">
+      <c r="D19" s="88">
         <v>0</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="89">
         <v>0</v>
       </c>
       <c r="F19" s="51">
@@ -3007,8 +2994,8 @@
         <v>#N/A</v>
       </c>
       <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
       <c r="N19" s="51" t="e">
@@ -3024,10 +3011,10 @@
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="58">
+      <c r="D20" s="88">
         <v>0</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="89">
         <v>0</v>
       </c>
       <c r="F20" s="51">
@@ -3040,8 +3027,8 @@
         <v>#N/A</v>
       </c>
       <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="51" t="e">
@@ -3057,10 +3044,10 @@
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="58">
+      <c r="D21" s="88">
         <v>0</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="89">
         <v>0</v>
       </c>
       <c r="F21" s="51">
@@ -3073,8 +3060,8 @@
         <v>#N/A</v>
       </c>
       <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="51" t="e">
@@ -3090,10 +3077,10 @@
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
-      <c r="D22" s="58">
+      <c r="D22" s="88">
         <v>0</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="89">
         <v>0</v>
       </c>
       <c r="F22" s="51">
@@ -3106,8 +3093,8 @@
         <v>#N/A</v>
       </c>
       <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="51" t="e">
@@ -3123,10 +3110,10 @@
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="58">
+      <c r="D23" s="88">
         <v>0</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="89">
         <v>0</v>
       </c>
       <c r="F23" s="51">
@@ -3139,8 +3126,8 @@
         <v>#N/A</v>
       </c>
       <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="50"/>
       <c r="M23" s="50"/>
       <c r="N23" s="51" t="e">
@@ -3156,10 +3143,10 @@
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
-      <c r="D24" s="58">
+      <c r="D24" s="88">
         <v>0</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="89">
         <v>0</v>
       </c>
       <c r="F24" s="51">
@@ -3172,8 +3159,8 @@
         <v>#N/A</v>
       </c>
       <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="50"/>
       <c r="M24" s="50"/>
       <c r="N24" s="51" t="e">
@@ -3189,10 +3176,10 @@
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
-      <c r="D25" s="58">
+      <c r="D25" s="88">
         <v>0</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="89">
         <v>0</v>
       </c>
       <c r="F25" s="51">
@@ -3205,8 +3192,8 @@
         <v>#N/A</v>
       </c>
       <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
       <c r="N25" s="51" t="e">
@@ -3222,10 +3209,10 @@
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50"/>
-      <c r="D26" s="58">
+      <c r="D26" s="88">
         <v>0</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="89">
         <v>0</v>
       </c>
       <c r="F26" s="51">
@@ -3238,8 +3225,8 @@
         <v>#N/A</v>
       </c>
       <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="50"/>
       <c r="M26" s="50"/>
       <c r="N26" s="51" t="e">
@@ -3255,10 +3242,10 @@
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
-      <c r="D27" s="58">
+      <c r="D27" s="88">
         <v>0</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="89">
         <v>0</v>
       </c>
       <c r="F27" s="51">
@@ -3271,8 +3258,8 @@
         <v>#N/A</v>
       </c>
       <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
       <c r="L27" s="50"/>
       <c r="M27" s="50"/>
       <c r="N27" s="51" t="e">
@@ -3288,10 +3275,10 @@
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="58">
+      <c r="D28" s="88">
         <v>0</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="89">
         <v>0</v>
       </c>
       <c r="F28" s="51">
@@ -3304,8 +3291,8 @@
         <v>#N/A</v>
       </c>
       <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
       <c r="N28" s="51" t="e">
@@ -3321,10 +3308,10 @@
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
-      <c r="D29" s="58">
+      <c r="D29" s="88">
         <v>0</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="89">
         <v>0</v>
       </c>
       <c r="F29" s="51">
@@ -3337,8 +3324,8 @@
         <v>#N/A</v>
       </c>
       <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
       <c r="N29" s="51" t="e">
@@ -3347,6 +3334,21 @@
       </c>
       <c r="O29" s="50"/>
       <c r="P29" s="50"/>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+    </row>
+    <row r="33" spans="2:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="95"/>
+      <c r="D33" s="96"/>
     </row>
   </sheetData>
   <autoFilter ref="B9:P9" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -3354,10 +3356,17 @@
       <sortCondition descending="1" ref="F9"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="J8:M8"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:H29">
     <cfRule type="expression" dxfId="9" priority="12">
@@ -3580,220 +3589,223 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4875FA09-941D-4396-8F3A-234D6C8C081C}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3818,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3817,11 +3829,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
+      <c r="B1" s="101" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="B2" s="101"/>
     </row>
     <row r="3" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
@@ -3845,6 +3859,9 @@
       <c r="B6" s="49"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3857,7 +3874,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3870,198 +3887,219 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81" t="s">
+      <c r="A2" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="82"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="85"/>
+      <c r="A4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="81"/>
+      <c r="C4" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="83"/>
       <c r="I4" s="84" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="84" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="L4" s="84"/>
     </row>
     <row r="5" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="85"/>
+      <c r="A5" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="83"/>
       <c r="K5" s="84" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="85"/>
+      <c r="A6" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="83"/>
+      <c r="A7" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="82"/>
     </row>
     <row r="8" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="L8" s="79"/>
+      <c r="A8" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="80"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="64"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H16" s="64"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="64"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="64"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="64"/>
+      <c r="H19" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -4078,27 +4116,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4122,91 +4139,91 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>173</v>
+      <c r="A2" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67">
+      <c r="A3" s="66">
         <v>5</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>176</v>
+      <c r="B3" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
+      <c r="A4" s="66">
         <v>4</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>179</v>
+      <c r="B4" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67">
+      <c r="A5" s="66">
         <v>3</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>182</v>
+      <c r="B5" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <v>2</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>185</v>
+      <c r="B6" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>188</v>
+      <c r="B7" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -4232,91 +4249,91 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>173</v>
+      <c r="A2" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>204</v>
+      <c r="A3" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>167</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>205</v>
+      <c r="A4" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>206</v>
+      <c r="A5" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>169</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>207</v>
+      <c r="A6" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>170</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>208</v>
+      <c r="A7" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>171</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4329,7 +4346,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4342,198 +4359,218 @@
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>121</v>
-      </c>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="B10" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="60" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>133</v>
+      <c r="E10" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
